--- a/COLM.xlsx
+++ b/COLM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A99ECE-39F1-4025-81E2-7C3481FF3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD2751-1221-4CF2-954E-718EE56A359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{ECC62F7A-C70F-47CF-9717-8932D5683754}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ECC62F7A-C70F-47CF-9717-8932D5683754}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Oscar Settje:</t>
         </r>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 25 Impairment of Goodwill</t>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>COLM</t>
   </si>
@@ -204,21 +204,40 @@
   <si>
     <t>Mountain Hardwear</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -245,14 +264,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -288,21 +307,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -641,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A36220-A4EA-40B8-B7BA-F22C5D1C362A}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>82.85</v>
+        <v>52.35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -672,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>56.655999999999999</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>54.770066999999997</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -687,7 +713,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>4693.9495999999999</v>
+        <v>2867.2130074500001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -698,11 +724,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <f>531.869+283.608</f>
-        <v>815.47700000000009</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
+        <f>427.084+151.223</f>
+        <v>578.30700000000002</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -712,8 +738,8 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
+      <c r="J6" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -725,7 +751,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>3878.4726000000001</v>
+        <v>2288.9060074500003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,11 +783,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B07C55-4E26-4518-8F85-A8F7E5C1C71D}">
   <dimension ref="A1:AX343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -771,12 +797,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -801,1038 +827,573 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>823.36500000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>1853.232</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="G3" s="12">
+        <v>619.05399999999997</v>
+      </c>
+      <c r="H3" s="12">
+        <v>463.94</v>
+      </c>
+      <c r="I3" s="12">
         <v>1818.35</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="12">
         <v>868.82299999999998</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K3" s="12">
+        <v>628.82000000000005</v>
+      </c>
+      <c r="L3" s="12">
+        <v>494.30200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>236.66900000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>573.97699999999998</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="G4" s="12">
+        <v>150.928</v>
+      </c>
+      <c r="H4" s="12">
+        <v>106.304</v>
+      </c>
+      <c r="I4" s="12">
         <v>453.64400000000001</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="12">
         <v>227.76400000000001</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K4" s="12">
+        <v>149.63200000000001</v>
+      </c>
+      <c r="L4" s="12">
+        <v>110.944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>456.4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>1445.13</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="G5" s="12">
+        <v>390.89699999999999</v>
+      </c>
+      <c r="H5" s="12">
+        <v>278.38400000000001</v>
+      </c>
+      <c r="I5" s="12">
         <v>1274.498</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="12">
         <v>459.85899999999998</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K5" s="12">
+        <v>399.76900000000001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>317.21800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>636.66099999999994</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>982.07899999999995</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="G6" s="12">
+        <v>379.08499999999998</v>
+      </c>
+      <c r="H6" s="12">
+        <v>291.86</v>
+      </c>
+      <c r="I6" s="12">
         <v>997.49599999999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="12">
         <v>636.72799999999995</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K6" s="12">
+        <v>378.68299999999999</v>
+      </c>
+      <c r="L6" s="12">
+        <v>288.02800000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>1059.9939999999999</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="13">
         <v>985.68299999999999</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>769.98199999999997</v>
+      </c>
+      <c r="H7" s="13">
+        <v>570.24400000000003</v>
+      </c>
+      <c r="I7" s="13">
         <v>931.76800000000003</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="13">
         <v>1096.587</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K7" s="13">
+        <v>778.452</v>
+      </c>
+      <c r="L7" s="13">
+        <v>605.24599999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>523.80399999999997</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>505.48599999999999</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="G8" s="12">
+        <v>380.423</v>
+      </c>
+      <c r="H8" s="12">
+        <v>296.82499999999999</v>
+      </c>
+      <c r="I8" s="12">
         <v>464.209</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="12">
         <v>536.03899999999999</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K8" s="12">
+        <v>382.39499999999998</v>
+      </c>
+      <c r="L8" s="12">
+        <v>308.13799999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="12">
         <f t="shared" ref="C9:H9" si="0">+C7-C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>536.18999999999994</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>480.197</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+        <v>389.55899999999997</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+        <v>273.41900000000004</v>
+      </c>
+      <c r="I9" s="12">
         <f>+I7-I8</f>
         <v>467.55900000000003</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" ref="J9" si="1">+J7-J8</f>
+      <c r="J9" s="12">
+        <f t="shared" ref="J9:N9" si="1">+J7-J8</f>
         <v>560.548</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>396.05700000000002</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>297.108</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <f>404.823+25</f>
         <v>429.82299999999998</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>351.56299999999999</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="G10" s="12">
+        <v>349.27</v>
+      </c>
+      <c r="H10" s="12">
+        <v>302.74900000000002</v>
+      </c>
+      <c r="I10" s="12">
         <v>361.24299999999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="12">
         <v>430.64499999999998</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K10" s="12">
+        <v>354.471</v>
+      </c>
+      <c r="L10" s="12">
+        <v>325.62799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>6.7069999999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
         <v>5.92</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="G11" s="12">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="H11" s="12">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="I11" s="12">
         <v>6.2249999999999996</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="12">
         <v>7.4180000000000001</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K11" s="12">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4.9290000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
         <f t="shared" ref="C12:H12" si="2">+C9-C10+C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>113.07399999999996</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <f t="shared" si="2"/>
         <v>134.554</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+        <v>44.68099999999999</v>
+      </c>
+      <c r="H12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+        <v>-23.801999999999985</v>
+      </c>
+      <c r="I12" s="12">
         <f>+I9-I10+I11</f>
         <v>112.54100000000003</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" ref="J12" si="3">+J9-J10+J11</f>
+      <c r="J12" s="12">
+        <f t="shared" ref="J12:N12" si="3">+J9-J10+J11</f>
         <v>137.32100000000003</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K12" s="12">
+        <f t="shared" si="3"/>
+        <v>46.50800000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="3"/>
+        <v>-23.59099999999998</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
+      <c r="D13" s="12">
         <v>5.0279999999999996</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>1.87</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="G13" s="12">
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="H13" s="12">
+        <v>8.3439999999999994</v>
+      </c>
+      <c r="I13" s="12">
         <v>5.3639999999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="12">
         <v>4.7969999999999997</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K13" s="12">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="L13" s="12">
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="D14" s="12">
         <v>1.867</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>-0.311</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="G14" s="12">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="I14" s="12">
         <v>1.2829999999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="12">
         <v>-2.2869999999999999</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K14" s="12">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2.1640000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:H15" si="4">+C12+SUM(C13:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <f t="shared" si="4"/>
         <v>119.96899999999995</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <f t="shared" si="4"/>
         <v>136.113</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+        <v>54.148999999999987</v>
+      </c>
+      <c r="H15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+        <v>-14.981999999999985</v>
+      </c>
+      <c r="I15" s="12">
         <f>+I12+SUM(I13:I14)</f>
         <v>119.18800000000003</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" ref="J15" si="5">+J12+SUM(J13:J14)</f>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15:N15" si="5">+J12+SUM(J13:J14)</f>
         <v>139.83100000000002</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="K15" s="12">
+        <f t="shared" si="5"/>
+        <v>54.876000000000012</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="5"/>
+        <v>-16.588999999999977</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="D16" s="12">
         <v>26.629000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>32.604999999999997</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="G16" s="12">
+        <v>11.849</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-3.2410000000000001</v>
+      </c>
+      <c r="I16" s="12">
         <v>29.030999999999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="12">
         <v>37.274000000000001</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-    </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K16" s="12">
+        <v>12.628</v>
+      </c>
+      <c r="L16" s="12">
+        <v>-6.3929999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="12">
         <f t="shared" ref="C17:H17" si="6">+C15-C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <f t="shared" si="6"/>
         <v>93.339999999999947</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <f t="shared" si="6"/>
         <v>103.50800000000001</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+        <v>42.299999999999983</v>
+      </c>
+      <c r="H17" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+        <v>-11.740999999999985</v>
+      </c>
+      <c r="I17" s="12">
         <f>+I15-I16</f>
         <v>90.157000000000039</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="7">+J15-J16</f>
+      <c r="J17" s="12">
+        <f t="shared" ref="J17:N17" si="7">+J15-J16</f>
         <v>102.55700000000002</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-    </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-    </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="K17" s="12">
+        <f t="shared" si="7"/>
+        <v>42.248000000000012</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="7"/>
+        <v>-10.195999999999977</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1852,26 +1413,38 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="7" t="e">
+      <c r="G19" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="7" t="e">
+        <v>0.70708590341507416</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>-0.19868681569729046</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="8"/>
         <v>1.5602145885610461</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" ref="J19" si="9">+J17/J20</f>
+        <f t="shared" ref="J19:N19" si="9">+J17/J20</f>
         <v>1.8101701496752334</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="7">
+        <f t="shared" si="9"/>
+        <v>0.75802921017691194</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.1861365171513587</v>
+      </c>
+      <c r="M19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -1909,7 +1482,7 @@
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1921,16 +1494,24 @@
         <v>60.844000000000001</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>59.823</v>
+      </c>
+      <c r="H20" s="3">
+        <v>59.093000000000004</v>
+      </c>
       <c r="I20" s="3">
         <v>57.784999999999997</v>
       </c>
       <c r="J20" s="3">
         <v>56.655999999999999</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="11">
+        <v>55.734000000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <v>54.777000000000001</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1970,7 +1551,7 @@
       <c r="AW20" s="3"/>
       <c r="AX20" s="3"/>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2020,34 +1601,46 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="8" t="e">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10" t="e">
         <f t="shared" ref="G22:H22" si="10">+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="10">
         <f t="shared" si="10"/>
-        <v>-1</v>
-      </c>
-      <c r="I22" s="8">
+        <v>-0.46203091715613476</v>
+      </c>
+      <c r="I22" s="10">
         <f>+I7/E7-1</f>
         <v>-5.4698112882133443E-2</v>
       </c>
-      <c r="J22" s="8" t="e">
+      <c r="J22" s="10" t="e">
         <f t="shared" ref="J22" si="11">+J7/F7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="10">
+        <f t="shared" ref="K22" si="12">+K7/G7-1</f>
+        <v>1.1000257148868542E-2</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" ref="L22" si="13">+L7/H7-1</f>
+        <v>6.1380742278743794E-2</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" ref="M22" si="14">+M7/I7-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" ref="N22" si="15">+N7/J7-1</f>
+        <v>-1</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2085,46 +1678,58 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="8" t="e">
-        <f t="shared" ref="C23:H23" si="12">+C9/C7</f>
+        <f t="shared" ref="C23:H23" si="16">+C9/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.50584248590086356</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.48717183922214341</v>
       </c>
       <c r="F23" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="G23" s="8">
+        <f t="shared" si="16"/>
+        <v>0.50593260621676872</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="16"/>
+        <v>0.47947720624855328</v>
       </c>
       <c r="I23" s="8">
         <f>+I9/I7</f>
         <v>0.50179765778605834</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" ref="J23" si="13">+J9/J7</f>
+        <f t="shared" ref="J23:N23" si="17">+J9/J7</f>
         <v>0.51117512791962705</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="8">
+        <f t="shared" si="17"/>
+        <v>0.50877510752108035</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="17"/>
+        <v>0.49088800256424664</v>
+      </c>
+      <c r="M23" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -2162,46 +1767,58 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="8" t="e">
-        <f t="shared" ref="C24:H24" si="14">+C12/C7</f>
+        <f t="shared" ref="C24:H24" si="18">+C12/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.10667418872182292</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.1365083906286301</v>
       </c>
       <c r="F24" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+      <c r="G24" s="8">
+        <f t="shared" si="18"/>
+        <v>5.8028629240683541E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="18"/>
+        <v>-4.174002707612879E-2</v>
       </c>
       <c r="I24" s="8">
         <f>+I12/I7</f>
         <v>0.12078221188106913</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24" si="15">+J12/J7</f>
+        <f t="shared" ref="J24:N24" si="19">+J12/J7</f>
         <v>0.12522581427647786</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="K24" s="8">
+        <f t="shared" si="19"/>
+        <v>5.9744210304553153E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="19"/>
+        <v>-3.8977539711125692E-2</v>
+      </c>
+      <c r="M24" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2239,46 +1856,58 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="8" t="e">
-        <f t="shared" ref="C25:H25" si="16">+C16/C15</f>
+        <f t="shared" ref="C25:H25" si="20">+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.22196567446590379</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.23954361449677838</v>
       </c>
       <c r="F25" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="G25" s="8">
+        <f t="shared" si="20"/>
+        <v>0.21882213891299937</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="20"/>
+        <v>0.21632625817647866</v>
       </c>
       <c r="I25" s="8">
         <f>+I16/I15</f>
         <v>0.24357317850790342</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25" si="17">+J16/J15</f>
+        <f t="shared" ref="J25:N25" si="21">+J16/J15</f>
         <v>0.26656463874248199</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="K25" s="8">
+        <f t="shared" si="21"/>
+        <v>0.23011881332458628</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="21"/>
+        <v>0.38537585146784065</v>
+      </c>
+      <c r="M25" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -2316,7 +1945,7 @@
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2366,7 +1995,7 @@
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2416,7 +2045,7 @@
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2466,7 +2095,7 @@
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2516,7 +2145,7 @@
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2566,7 +2195,7 @@
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2616,7 +2245,7 @@
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>

--- a/COLM.xlsx
+++ b/COLM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AD2751-1221-4CF2-954E-718EE56A359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7982EDEA-469A-4212-9792-EDDAECE2E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{ECC62F7A-C70F-47CF-9717-8932D5683754}"/>
   </bookViews>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Oscar Settje</author>
+    <author>tc={02328662-4D88-4BC8-91D8-F530CF00DD0F}</author>
   </authors>
   <commentList>
     <comment ref="D10" authorId="0" shapeId="0" xr:uid="{4511427A-6919-43BC-B48C-3A502B1E98A5}">
@@ -64,6 +65,14 @@
           <t xml:space="preserve">
 25 Impairment of Goodwill</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="1" shapeId="0" xr:uid="{02328662-4D88-4BC8-91D8-F530CF00DD0F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    29 $ mio Godwill Impairment</t>
       </text>
     </comment>
   </commentList>
@@ -225,13 +234,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -287,6 +302,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,28 +329,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -346,6 +372,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{1B5CE0B6-B2B8-49C3-A84C-CB0394E90054}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,12 +695,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M10" dT="2025-12-14T11:31:57.34" personId="{1B5CE0B6-B2B8-49C3-A84C-CB0394E90054}" id="{02328662-4D88-4BC8-91D8-F530CF00DD0F}">
+    <text>29 $ mio Godwill Impairment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A36220-A4EA-40B8-B7BA-F22C5D1C362A}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -690,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>52.35</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -698,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="3">
-        <v>54.770066999999997</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
+        <v>53.888891999999998</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -713,7 +753,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>2867.2130074500001</v>
+        <v>3053.3446207199995</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -724,11 +764,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <f>427.084+151.223</f>
-        <v>578.30700000000002</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
+        <f>228.832+7.195</f>
+        <v>236.02699999999999</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -738,12 +778,12 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>45</v>
+      <c r="J6" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -751,7 +791,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>2288.9060074500003</v>
+        <v>2817.3176207199995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -784,10 +824,10 @@
   <dimension ref="A1:AX343"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -869,6 +909,9 @@
       <c r="L3" s="12">
         <v>494.30200000000002</v>
       </c>
+      <c r="M3" s="12">
+        <v>734.31500000000005</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -899,6 +942,9 @@
       <c r="L4" s="12">
         <v>110.944</v>
       </c>
+      <c r="M4" s="12">
+        <v>209.11</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -929,6 +975,9 @@
       <c r="L5" s="12">
         <v>317.21800000000002</v>
       </c>
+      <c r="M5" s="12">
+        <v>605.21699999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -959,6 +1008,9 @@
       <c r="L6" s="12">
         <v>288.02800000000002</v>
       </c>
+      <c r="M6" s="12">
+        <v>326.55099999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -991,6 +1043,9 @@
       <c r="L7" s="13">
         <v>605.24599999999998</v>
       </c>
+      <c r="M7" s="13">
+        <v>943.42499999999995</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -1021,6 +1076,9 @@
       <c r="L8" s="12">
         <v>308.13799999999998</v>
       </c>
+      <c r="M8" s="12">
+        <v>471.60700000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -1069,7 +1127,7 @@
       </c>
       <c r="M9" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>471.81799999999993</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="1"/>
@@ -1106,6 +1164,10 @@
       <c r="L10" s="12">
         <v>325.62799999999999</v>
       </c>
+      <c r="M10" s="12">
+        <f>380.892+29</f>
+        <v>409.892</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -1136,6 +1198,9 @@
       <c r="L11" s="12">
         <v>4.9290000000000003</v>
       </c>
+      <c r="M11" s="12">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="12" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -1184,7 +1249,7 @@
       </c>
       <c r="M12" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>67.385999999999925</v>
       </c>
       <c r="N12" s="12">
         <f t="shared" si="3"/>
@@ -1220,6 +1285,9 @@
       <c r="L13" s="12">
         <v>4.8380000000000001</v>
       </c>
+      <c r="M13" s="12">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -1250,6 +1318,9 @@
       <c r="L14" s="12">
         <v>2.1640000000000001</v>
       </c>
+      <c r="M14" s="12">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1298,7 +1369,7 @@
       </c>
       <c r="M15" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70.987999999999928</v>
       </c>
       <c r="N15" s="12">
         <f t="shared" si="5"/>
@@ -1334,6 +1405,9 @@
       <c r="L16" s="12">
         <v>-6.3929999999999998</v>
       </c>
+      <c r="M16" s="12">
+        <v>18.983000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1382,7 +1456,7 @@
       </c>
       <c r="M17" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>52.004999999999924</v>
       </c>
       <c r="N17" s="12">
         <f t="shared" si="7"/>
@@ -1437,9 +1511,9 @@
         <f t="shared" si="9"/>
         <v>-0.1861365171513587</v>
       </c>
-      <c r="M19" s="7" t="e">
+      <c r="M19" s="7">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.95352035203520213</v>
       </c>
       <c r="N19" s="7" t="e">
         <f t="shared" si="9"/>
@@ -1512,7 +1586,9 @@
       <c r="L20" s="3">
         <v>54.777000000000001</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>54.54</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1635,7 +1711,7 @@
       </c>
       <c r="M22" s="10">
         <f t="shared" ref="M22" si="14">+M7/I7-1</f>
-        <v>-1</v>
+        <v>1.2510624962436934E-2</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" ref="N22" si="15">+N7/J7-1</f>
@@ -1722,9 +1798,9 @@
         <f t="shared" si="17"/>
         <v>0.49088800256424664</v>
       </c>
-      <c r="M23" s="8" t="e">
+      <c r="M23" s="8">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.50011182658928899</v>
       </c>
       <c r="N23" s="8" t="e">
         <f t="shared" si="17"/>
@@ -1811,9 +1887,9 @@
         <f t="shared" si="19"/>
         <v>-3.8977539711125692E-2</v>
       </c>
-      <c r="M24" s="8" t="e">
+      <c r="M24" s="8">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>7.1426981477064874E-2</v>
       </c>
       <c r="N24" s="8" t="e">
         <f t="shared" si="19"/>
@@ -1900,9 +1976,9 @@
         <f t="shared" si="21"/>
         <v>0.38537585146784065</v>
       </c>
-      <c r="M25" s="8" t="e">
+      <c r="M25" s="8">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.2674113934749538</v>
       </c>
       <c r="N25" s="8" t="e">
         <f t="shared" si="21"/>
